--- a/Code/Results/Cases/Case_0_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_211/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>7.316364619398443</v>
+        <v>4.920258781565997</v>
       </c>
       <c r="D2">
-        <v>5.059486495399548</v>
+        <v>9.456804409284379</v>
       </c>
       <c r="E2">
-        <v>6.573886164078227</v>
+        <v>13.00677307600122</v>
       </c>
       <c r="F2">
-        <v>25.41808079847009</v>
+        <v>29.13633053754067</v>
       </c>
       <c r="G2">
-        <v>35.73803257544773</v>
+        <v>30.65898060472242</v>
       </c>
       <c r="H2">
-        <v>10.16976284359679</v>
+        <v>14.04511577966951</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>4.885268876123877</v>
+        <v>9.437723190109452</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>28.34353333339911</v>
+        <v>22.35015264789025</v>
       </c>
       <c r="N2">
-        <v>19.70166975247531</v>
+        <v>17.43041460879761</v>
       </c>
       <c r="O2">
-        <v>19.13332278284456</v>
+        <v>21.78685146966273</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>6.804766641155052</v>
+        <v>4.749570390413714</v>
       </c>
       <c r="D3">
-        <v>5.139233153409549</v>
+        <v>9.493174656124046</v>
       </c>
       <c r="E3">
-        <v>6.783763247709295</v>
+        <v>13.08385970225123</v>
       </c>
       <c r="F3">
-        <v>24.1891245053541</v>
+        <v>29.00324814388141</v>
       </c>
       <c r="G3">
-        <v>33.49198649481026</v>
+        <v>30.13621996917638</v>
       </c>
       <c r="H3">
-        <v>9.833992275970461</v>
+        <v>14.03520142760284</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.013884070625374</v>
+        <v>9.482599112501354</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>26.48445851215434</v>
+        <v>21.66593927181829</v>
       </c>
       <c r="N3">
-        <v>18.85169820282341</v>
+        <v>17.14105371264457</v>
       </c>
       <c r="O3">
-        <v>18.20058723877846</v>
+        <v>21.67356376577764</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>6.473610596195728</v>
+        <v>4.643142525647408</v>
       </c>
       <c r="D4">
-        <v>5.190657778466543</v>
+        <v>9.51674282059877</v>
       </c>
       <c r="E4">
-        <v>6.91642748316395</v>
+        <v>13.13350793028787</v>
       </c>
       <c r="F4">
-        <v>23.42911296309221</v>
+        <v>28.93048671829183</v>
       </c>
       <c r="G4">
-        <v>32.06884556415315</v>
+        <v>29.82228752659161</v>
       </c>
       <c r="H4">
-        <v>9.631044570502231</v>
+        <v>14.03241551912754</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.094763743438658</v>
+        <v>9.511466432683115</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>25.27284030919707</v>
+        <v>21.23465837880838</v>
       </c>
       <c r="N4">
-        <v>18.31263102940352</v>
+        <v>16.9628288749524</v>
       </c>
       <c r="O4">
-        <v>17.62177065283508</v>
+        <v>21.61021082340978</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>6.33433611143204</v>
+        <v>4.599441837565622</v>
       </c>
       <c r="D5">
-        <v>5.21222038688534</v>
+        <v>9.526658541742643</v>
       </c>
       <c r="E5">
-        <v>6.971450499386078</v>
+        <v>13.15432401779487</v>
       </c>
       <c r="F5">
-        <v>23.11845298694843</v>
+        <v>28.90310860666817</v>
       </c>
       <c r="G5">
-        <v>31.47827209053835</v>
+        <v>29.69632018270886</v>
       </c>
       <c r="H5">
-        <v>9.549240674549676</v>
+        <v>14.0321111455634</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.128216988399113</v>
+        <v>9.523561310495268</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>24.76138839990611</v>
+        <v>21.05633064869456</v>
       </c>
       <c r="N5">
-        <v>18.08891822151226</v>
+        <v>16.89014992225147</v>
       </c>
       <c r="O5">
-        <v>17.38466940483101</v>
+        <v>21.58597489955432</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>6.310947204130681</v>
+        <v>4.592167812978447</v>
       </c>
       <c r="D6">
-        <v>5.215837159442134</v>
+        <v>9.528323869328071</v>
       </c>
       <c r="E6">
-        <v>6.98064528527688</v>
+        <v>13.15781583066772</v>
       </c>
       <c r="F6">
-        <v>23.06682414533688</v>
+        <v>28.89870032562276</v>
       </c>
       <c r="G6">
-        <v>31.37958137635701</v>
+        <v>29.67552745943667</v>
       </c>
       <c r="H6">
-        <v>9.535714203051123</v>
+        <v>14.03211079857332</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.133802114843763</v>
+        <v>9.525589688387241</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>24.67539074836125</v>
+        <v>21.02657095312731</v>
       </c>
       <c r="N6">
-        <v>18.05153598864926</v>
+        <v>16.87808119386683</v>
       </c>
       <c r="O6">
-        <v>17.34523466263191</v>
+        <v>21.58204656828483</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>6.471749862035082</v>
+        <v>4.642554393276916</v>
       </c>
       <c r="D7">
-        <v>5.190946137752992</v>
+        <v>9.516875285513949</v>
       </c>
       <c r="E7">
-        <v>6.917165641832836</v>
+        <v>13.13378629666387</v>
       </c>
       <c r="F7">
-        <v>23.42492654277881</v>
+        <v>28.93010825921808</v>
       </c>
       <c r="G7">
-        <v>32.06092324326045</v>
+        <v>29.82058049017369</v>
       </c>
       <c r="H7">
-        <v>9.62993757270818</v>
+        <v>14.03240804947066</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.095212886871223</v>
+        <v>9.51162820611013</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>25.26601447733813</v>
+        <v>21.2322635036619</v>
       </c>
       <c r="N7">
-        <v>18.30962991028868</v>
+        <v>16.96184878854882</v>
       </c>
       <c r="O7">
-        <v>17.61857755474146</v>
+        <v>21.60987754337788</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>7.143474659514543</v>
+        <v>4.86178747149533</v>
       </c>
       <c r="D8">
-        <v>5.086465026501086</v>
+        <v>9.469088514590878</v>
       </c>
       <c r="E8">
-        <v>6.64546656770675</v>
+        <v>13.03287259745841</v>
       </c>
       <c r="F8">
-        <v>24.99569321701753</v>
+        <v>29.08859997776683</v>
       </c>
       <c r="G8">
-        <v>34.97296842039307</v>
+        <v>30.47738628421752</v>
       </c>
       <c r="H8">
-        <v>10.05337397880821</v>
+        <v>14.04101266791539</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>4.929227727042576</v>
+        <v>9.452924411932964</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>27.71703719421004</v>
+        <v>22.11668759427191</v>
       </c>
       <c r="N8">
-        <v>19.41232234299197</v>
+        <v>17.33081122424798</v>
       </c>
       <c r="O8">
-        <v>18.81315422721872</v>
+        <v>21.746514767159</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>8.327579049690211</v>
+        <v>5.275705716908866</v>
       </c>
       <c r="D9">
-        <v>4.901703807595744</v>
+        <v>9.385166978503563</v>
       </c>
       <c r="E9">
-        <v>6.142611522854868</v>
+        <v>12.85329498648699</v>
       </c>
       <c r="F9">
-        <v>28.01793467173119</v>
+        <v>29.46930115143144</v>
       </c>
       <c r="G9">
-        <v>40.32067716343827</v>
+        <v>31.8127579178313</v>
       </c>
       <c r="H9">
-        <v>10.90563386197616</v>
+        <v>14.08402786312987</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>4.618211823223747</v>
+        <v>9.348182252552908</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>31.97045603170526</v>
+        <v>23.75318926564491</v>
       </c>
       <c r="N9">
-        <v>21.42795452409341</v>
+        <v>18.04612151014032</v>
       </c>
       <c r="O9">
-        <v>21.0962278007762</v>
+        <v>22.06268758165521</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>9.119279776733014</v>
+        <v>5.56635123786754</v>
       </c>
       <c r="D10">
-        <v>4.77919961944721</v>
+        <v>9.329442485732493</v>
       </c>
       <c r="E10">
-        <v>5.791322745472144</v>
+        <v>12.73242658261246</v>
       </c>
       <c r="F10">
-        <v>30.18769271220815</v>
+        <v>29.78986705667299</v>
       </c>
       <c r="G10">
-        <v>44.09955998606969</v>
+        <v>32.81132743154357</v>
       </c>
       <c r="H10">
-        <v>11.54097228020172</v>
+        <v>14.13145965070632</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>4.397547172124613</v>
+        <v>9.277489692695589</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>34.76351993792417</v>
+        <v>24.88486897604502</v>
       </c>
       <c r="N10">
-        <v>22.80791314493036</v>
+        <v>18.56171446959201</v>
       </c>
       <c r="O10">
-        <v>22.7262388489391</v>
+        <v>22.32285378145962</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>9.463127632097343</v>
+        <v>5.694993491010759</v>
       </c>
       <c r="D11">
-        <v>4.7266021743755</v>
+        <v>9.305372974545586</v>
       </c>
       <c r="E11">
-        <v>5.635513349196588</v>
+        <v>12.67982286666566</v>
       </c>
       <c r="F11">
-        <v>31.16183375551056</v>
+        <v>29.94413419318374</v>
       </c>
       <c r="G11">
-        <v>45.77098053438927</v>
+        <v>33.26702790115322</v>
       </c>
       <c r="H11">
-        <v>11.83134800919956</v>
+        <v>14.15643917136421</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>4.298631864991541</v>
+        <v>9.246675775488161</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>35.96330891871752</v>
+        <v>25.38239477384256</v>
       </c>
       <c r="N11">
-        <v>23.41198009412612</v>
+        <v>18.79312710310437</v>
       </c>
       <c r="O11">
-        <v>23.47485494626963</v>
+        <v>22.44689102276475</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>9.591048904255075</v>
+        <v>5.74314636469456</v>
       </c>
       <c r="D12">
-        <v>4.707160562226864</v>
+        <v>9.296442009745807</v>
       </c>
       <c r="E12">
-        <v>5.577100040615815</v>
+        <v>12.66024393052381</v>
       </c>
       <c r="F12">
-        <v>31.5287801384906</v>
+        <v>30.00372337919578</v>
       </c>
       <c r="G12">
-        <v>46.39598506366276</v>
+        <v>33.43960725927923</v>
       </c>
       <c r="H12">
-        <v>11.94146400436393</v>
+        <v>14.16638351886989</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>4.261366033038618</v>
+        <v>9.235199667813374</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>36.40756345703951</v>
+        <v>25.56816910677947</v>
       </c>
       <c r="N12">
-        <v>23.6372040926409</v>
+        <v>18.88022915096149</v>
       </c>
       <c r="O12">
-        <v>23.80074998715191</v>
+        <v>22.49464417921837</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>9.563599502677567</v>
+        <v>5.732801432684322</v>
       </c>
       <c r="D13">
-        <v>4.711326048015228</v>
+        <v>9.298357291810957</v>
       </c>
       <c r="E13">
-        <v>5.589653916867507</v>
+        <v>12.66444546112955</v>
       </c>
       <c r="F13">
-        <v>31.44983867848488</v>
+        <v>29.99083837355332</v>
       </c>
       <c r="G13">
-        <v>46.26172875510604</v>
+        <v>33.40244150756456</v>
       </c>
       <c r="H13">
-        <v>11.91774202053019</v>
+        <v>14.16422032103952</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>4.269383713806349</v>
+        <v>9.237662707450751</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>36.31233192809869</v>
+        <v>25.52827826385139</v>
       </c>
       <c r="N13">
-        <v>23.58885638859281</v>
+        <v>18.86149489446174</v>
       </c>
       <c r="O13">
-        <v>23.73075743207369</v>
+        <v>22.48432543161342</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>9.473697272800111</v>
+        <v>5.698966554170629</v>
       </c>
       <c r="D14">
-        <v>4.724993003571186</v>
+        <v>9.304634540609134</v>
       </c>
       <c r="E14">
-        <v>5.630695751609939</v>
+        <v>12.67820526994892</v>
       </c>
       <c r="F14">
-        <v>31.19206181191438</v>
+        <v>29.94901340168991</v>
       </c>
       <c r="G14">
-        <v>45.82255785282081</v>
+        <v>33.28122687601986</v>
       </c>
       <c r="H14">
-        <v>11.84040433743729</v>
+        <v>14.15724760163679</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>4.295562265529732</v>
+        <v>9.245727777162793</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>36.00005942206749</v>
+        <v>25.39773196912811</v>
       </c>
       <c r="N14">
-        <v>23.4305806057435</v>
+        <v>18.80030407549908</v>
       </c>
       <c r="O14">
-        <v>23.50175447758885</v>
+        <v>22.45080421720334</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>9.418333570546755</v>
+        <v>5.678167328019181</v>
       </c>
       <c r="D15">
-        <v>4.733427208225203</v>
+        <v>9.308503439913233</v>
       </c>
       <c r="E15">
-        <v>5.655912228261792</v>
+        <v>12.68667791410779</v>
       </c>
       <c r="F15">
-        <v>31.033911891499</v>
+        <v>29.92354567798551</v>
       </c>
       <c r="G15">
-        <v>45.55252603730365</v>
+        <v>33.20697583709445</v>
       </c>
       <c r="H15">
-        <v>11.79305234105094</v>
+        <v>14.15303965675957</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>4.311621691682708</v>
+        <v>9.25069290238685</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>35.80747391136404</v>
+        <v>25.31742239505121</v>
       </c>
       <c r="N15">
-        <v>23.33317022443465</v>
+        <v>18.76275179671525</v>
       </c>
       <c r="O15">
-        <v>23.36091112328796</v>
+        <v>22.4303724084171</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>9.096485336486822</v>
+        <v>5.557868082716372</v>
       </c>
       <c r="D16">
-        <v>4.782702100989257</v>
+        <v>9.331041203862748</v>
       </c>
       <c r="E16">
-        <v>5.80158664795925</v>
+        <v>12.73591213946646</v>
       </c>
       <c r="F16">
-        <v>30.12376219620344</v>
+        <v>29.7799516333115</v>
       </c>
       <c r="G16">
-        <v>43.98921045867691</v>
+        <v>32.78155882533033</v>
       </c>
       <c r="H16">
-        <v>11.52201925746028</v>
+        <v>14.12989530850392</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>4.404039372371521</v>
+        <v>9.279530433635543</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>34.68369485054831</v>
+        <v>24.85199417630853</v>
       </c>
       <c r="N16">
-        <v>22.76794880800406</v>
+        <v>18.54652127515741</v>
       </c>
       <c r="O16">
-        <v>22.6782994956648</v>
+        <v>22.31485914856921</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>8.894906683379849</v>
+        <v>5.483117637272674</v>
       </c>
       <c r="D17">
-        <v>4.813749672897793</v>
+        <v>9.345194899639141</v>
       </c>
       <c r="E17">
-        <v>5.891983748889393</v>
+        <v>12.76672438144677</v>
       </c>
       <c r="F17">
-        <v>29.56203296352226</v>
+        <v>29.69399393347192</v>
       </c>
       <c r="G17">
-        <v>43.01587895604852</v>
+        <v>32.52081059557507</v>
       </c>
       <c r="H17">
-        <v>11.35606509026874</v>
+        <v>14.11656572563363</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>4.461096535374243</v>
+        <v>9.297565050561989</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>33.97623117258732</v>
+        <v>24.56193617281236</v>
       </c>
       <c r="N17">
-        <v>22.41504684321761</v>
+        <v>18.41301138737857</v>
       </c>
       <c r="O17">
-        <v>22.25686080560888</v>
+        <v>22.24542774120273</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>8.777426014332345</v>
+        <v>5.439789224165495</v>
       </c>
       <c r="D18">
-        <v>4.831900319186368</v>
+        <v>9.353456219063801</v>
       </c>
       <c r="E18">
-        <v>5.944352437426438</v>
+        <v>12.78467085354397</v>
       </c>
       <c r="F18">
-        <v>29.23772897002601</v>
+        <v>29.64535045599834</v>
       </c>
       <c r="G18">
-        <v>42.45075205240538</v>
+        <v>32.37098235675436</v>
       </c>
       <c r="H18">
-        <v>11.26074177856638</v>
+        <v>14.10921945368963</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>4.494053542194243</v>
+        <v>9.308064686536371</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>33.56264738341152</v>
+        <v>24.39348340110551</v>
       </c>
       <c r="N18">
-        <v>22.20984322291949</v>
+        <v>18.33592956422917</v>
       </c>
       <c r="O18">
-        <v>22.01336776367005</v>
+        <v>22.20603005163185</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>8.737383236994207</v>
+        <v>5.425063146152888</v>
       </c>
       <c r="D19">
-        <v>4.838095392760397</v>
+        <v>9.356274066256717</v>
       </c>
       <c r="E19">
-        <v>5.962147616717882</v>
+        <v>12.79078574687187</v>
       </c>
       <c r="F19">
-        <v>29.12772059132505</v>
+        <v>29.62901875593693</v>
       </c>
       <c r="G19">
-        <v>42.25849763534127</v>
+        <v>32.32028435500107</v>
       </c>
       <c r="H19">
-        <v>11.228490522702</v>
+        <v>14.10678730353628</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>4.505236712092529</v>
+        <v>9.311641453728463</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>33.42146659090437</v>
+        <v>24.336174725997</v>
       </c>
       <c r="N19">
-        <v>22.1399868385044</v>
+        <v>18.3097835466969</v>
       </c>
       <c r="O19">
-        <v>21.93074001418736</v>
+        <v>22.19278400373203</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>8.916523842573639</v>
+        <v>5.49110987067779</v>
       </c>
       <c r="D20">
-        <v>4.810414115642816</v>
+        <v>9.343675747461075</v>
       </c>
       <c r="E20">
-        <v>5.882321968774903</v>
+        <v>12.76342118299855</v>
       </c>
       <c r="F20">
-        <v>29.62195626464653</v>
+        <v>29.70306207529817</v>
       </c>
       <c r="G20">
-        <v>43.12003868957891</v>
+        <v>32.54855386643516</v>
       </c>
       <c r="H20">
-        <v>11.37371815250815</v>
+        <v>14.1179515346278</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>4.455008431158151</v>
+        <v>9.295632138427617</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>34.05223143951142</v>
+        <v>24.592981996845</v>
       </c>
       <c r="N20">
-        <v>22.45284493375052</v>
+        <v>18.42725438507583</v>
       </c>
       <c r="O20">
-        <v>22.30183731596833</v>
+        <v>22.25276345837043</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>9.500165312985676</v>
+        <v>5.708920256742102</v>
       </c>
       <c r="D21">
-        <v>4.720965549090439</v>
+        <v>9.302785779780027</v>
       </c>
       <c r="E21">
-        <v>5.618624651688475</v>
+        <v>12.67415443741015</v>
       </c>
       <c r="F21">
-        <v>31.26783016101916</v>
+        <v>29.96126696200672</v>
       </c>
       <c r="G21">
-        <v>45.95176666893722</v>
+        <v>33.31683163048842</v>
       </c>
       <c r="H21">
-        <v>11.8631162589017</v>
+        <v>14.15928252761404</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>4.287867961106076</v>
+        <v>9.243353654531145</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>36.09205415606977</v>
+        <v>25.43614896094802</v>
       </c>
       <c r="N21">
-        <v>23.47716647575123</v>
+        <v>18.81829226107818</v>
       </c>
       <c r="O21">
-        <v>23.56913727086891</v>
+        <v>22.46062924664157</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>9.868311088210159</v>
+        <v>5.84798300960249</v>
       </c>
       <c r="D22">
-        <v>4.665294170682503</v>
+        <v>9.277132018664238</v>
       </c>
       <c r="E22">
-        <v>5.449725079739745</v>
+        <v>12.61780019092449</v>
       </c>
       <c r="F22">
-        <v>32.33219937209327</v>
+        <v>30.13682630409719</v>
       </c>
       <c r="G22">
-        <v>47.75637520835395</v>
+        <v>33.81895171090304</v>
       </c>
       <c r="H22">
-        <v>12.18387441909409</v>
+        <v>14.18912017596336</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>4.179736915830592</v>
+        <v>9.210308008057137</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>37.36649574924804</v>
+        <v>25.97183461631777</v>
       </c>
       <c r="N22">
-        <v>24.12604610259137</v>
+        <v>19.07074180755329</v>
       </c>
       <c r="O22">
-        <v>24.5096007100761</v>
+        <v>22.60102792116418</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>9.673021470807248</v>
+        <v>5.774077729425549</v>
       </c>
       <c r="D23">
-        <v>4.69474245358098</v>
+        <v>9.290726120818741</v>
       </c>
       <c r="E23">
-        <v>5.5395482202778</v>
+        <v>12.64769614557191</v>
       </c>
       <c r="F23">
-        <v>31.76517305025063</v>
+        <v>30.04251865034409</v>
       </c>
       <c r="G23">
-        <v>46.79737592231353</v>
+        <v>33.55102192996768</v>
       </c>
       <c r="H23">
-        <v>12.01260536078393</v>
+        <v>14.1729382545329</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>4.237354129672428</v>
+        <v>9.227842776048046</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>36.69163881922058</v>
+        <v>25.68737887540235</v>
       </c>
       <c r="N23">
-        <v>23.78164227692567</v>
+        <v>18.93631472751926</v>
       </c>
       <c r="O23">
-        <v>24.00996940747986</v>
+        <v>22.52569040917387</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>8.906755683001801</v>
+        <v>5.487497679073073</v>
       </c>
       <c r="D24">
-        <v>4.811921185484699</v>
+        <v>9.344362169343531</v>
       </c>
       <c r="E24">
-        <v>5.88668882023806</v>
+        <v>12.76491383589809</v>
       </c>
       <c r="F24">
-        <v>29.59486916403563</v>
+        <v>29.69895995181912</v>
       </c>
       <c r="G24">
-        <v>43.07296535735662</v>
+        <v>32.53601087152747</v>
       </c>
       <c r="H24">
-        <v>11.3657369322721</v>
+        <v>14.11732402231599</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>4.457760381668615</v>
+        <v>9.296505598936786</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>34.0178930734416</v>
+        <v>24.5789514469152</v>
       </c>
       <c r="N24">
-        <v>22.43576362037806</v>
+        <v>18.42081613276582</v>
       </c>
       <c r="O24">
-        <v>22.28150717570302</v>
+        <v>22.24944536018794</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>8.021209755809545</v>
+        <v>5.165850155137005</v>
       </c>
       <c r="D25">
-        <v>4.949439966447922</v>
+        <v>9.406825689841504</v>
       </c>
       <c r="E25">
-        <v>6.275462795296143</v>
+        <v>12.89992498689189</v>
       </c>
       <c r="F25">
-        <v>27.20837447876875</v>
+        <v>29.35899542661668</v>
       </c>
       <c r="G25">
-        <v>38.91420703156543</v>
+        <v>31.4476177274501</v>
       </c>
       <c r="H25">
-        <v>10.673199239842</v>
+        <v>14.06960123124142</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>4.70089852530616</v>
+        <v>9.375413604450889</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>30.87847934185509</v>
+        <v>23.32215614299891</v>
       </c>
       <c r="N25">
-        <v>20.89969216936714</v>
+        <v>17.85401202175196</v>
       </c>
       <c r="O25">
-        <v>20.48629468469773</v>
+        <v>21.97213983805011</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_0_211/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_0_211/res_line/loading_percent.xlsx
@@ -424,28 +424,28 @@
         <v>0</v>
       </c>
       <c r="C2">
-        <v>4.920258781565997</v>
+        <v>7.316364619398355</v>
       </c>
       <c r="D2">
-        <v>9.456804409284379</v>
+        <v>5.059486495399482</v>
       </c>
       <c r="E2">
-        <v>13.00677307600122</v>
+        <v>6.573886164078226</v>
       </c>
       <c r="F2">
-        <v>29.13633053754067</v>
+        <v>25.4180807984701</v>
       </c>
       <c r="G2">
-        <v>30.65898060472242</v>
+        <v>35.73803257544769</v>
       </c>
       <c r="H2">
-        <v>14.04511577966951</v>
+        <v>10.16976284359685</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>9.437723190109452</v>
+        <v>4.885268876123876</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -454,13 +454,13 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>22.35015264789025</v>
+        <v>28.34353333339909</v>
       </c>
       <c r="N2">
-        <v>17.43041460879761</v>
+        <v>19.70166975247532</v>
       </c>
       <c r="O2">
-        <v>21.78685146966273</v>
+        <v>19.13332278284457</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -471,28 +471,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>4.749570390413714</v>
+        <v>6.804766641155077</v>
       </c>
       <c r="D3">
-        <v>9.493174656124046</v>
+        <v>5.13923315340935</v>
       </c>
       <c r="E3">
-        <v>13.08385970225123</v>
+        <v>6.783763247709293</v>
       </c>
       <c r="F3">
-        <v>29.00324814388141</v>
+        <v>24.18912450535402</v>
       </c>
       <c r="G3">
-        <v>30.13621996917638</v>
+        <v>33.49198649481026</v>
       </c>
       <c r="H3">
-        <v>14.03520142760284</v>
+        <v>9.833992275970456</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>9.482599112501354</v>
+        <v>5.013884070625406</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -501,13 +501,13 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>21.66593927181829</v>
+        <v>26.48445851215436</v>
       </c>
       <c r="N3">
-        <v>17.14105371264457</v>
+        <v>18.85169820282342</v>
       </c>
       <c r="O3">
-        <v>21.67356376577764</v>
+        <v>18.20058723877843</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -518,28 +518,28 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>4.643142525647408</v>
+        <v>6.473610596195697</v>
       </c>
       <c r="D4">
-        <v>9.51674282059877</v>
+        <v>5.190657778466538</v>
       </c>
       <c r="E4">
-        <v>13.13350793028787</v>
+        <v>6.91642748316388</v>
       </c>
       <c r="F4">
-        <v>28.93048671829183</v>
+        <v>23.42911296309214</v>
       </c>
       <c r="G4">
-        <v>29.82228752659161</v>
+        <v>32.06884556415309</v>
       </c>
       <c r="H4">
-        <v>14.03241551912754</v>
+        <v>9.631044570502217</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.511466432683115</v>
+        <v>5.094763743438691</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -548,13 +548,13 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>21.23465837880838</v>
+        <v>25.27284030919706</v>
       </c>
       <c r="N4">
-        <v>16.9628288749524</v>
+        <v>18.3126310294035</v>
       </c>
       <c r="O4">
-        <v>21.61021082340978</v>
+        <v>17.62177065283501</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -565,28 +565,28 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>4.599441837565622</v>
+        <v>6.334336111431988</v>
       </c>
       <c r="D5">
-        <v>9.526658541742643</v>
+        <v>5.212220386885472</v>
       </c>
       <c r="E5">
-        <v>13.15432401779487</v>
+        <v>6.971450499386143</v>
       </c>
       <c r="F5">
-        <v>28.90310860666817</v>
+        <v>23.11845298694841</v>
       </c>
       <c r="G5">
-        <v>29.69632018270886</v>
+        <v>31.47827209053838</v>
       </c>
       <c r="H5">
-        <v>14.0321111455634</v>
+        <v>9.549240674549644</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.523561310495268</v>
+        <v>5.128216988399112</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -595,13 +595,13 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>21.05633064869456</v>
+        <v>24.76138839990611</v>
       </c>
       <c r="N5">
-        <v>16.89014992225147</v>
+        <v>18.08891822151225</v>
       </c>
       <c r="O5">
-        <v>21.58597489955432</v>
+        <v>17.38466940483098</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -612,28 +612,28 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.592167812978447</v>
+        <v>6.310947204130721</v>
       </c>
       <c r="D6">
-        <v>9.528323869328071</v>
+        <v>5.215837159441999</v>
       </c>
       <c r="E6">
-        <v>13.15781583066772</v>
+        <v>6.980645285276616</v>
       </c>
       <c r="F6">
-        <v>28.89870032562276</v>
+        <v>23.0668241453368</v>
       </c>
       <c r="G6">
-        <v>29.67552745943667</v>
+        <v>31.37958137635698</v>
       </c>
       <c r="H6">
-        <v>14.03211079857332</v>
+        <v>9.535714203051054</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.525589688387241</v>
+        <v>5.133802114843664</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -642,13 +642,13 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>21.02657095312731</v>
+        <v>24.67539074836131</v>
       </c>
       <c r="N6">
-        <v>16.87808119386683</v>
+        <v>18.05153598864923</v>
       </c>
       <c r="O6">
-        <v>21.58204656828483</v>
+        <v>17.34523466263185</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -659,28 +659,28 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>4.642554393276916</v>
+        <v>6.471749862035065</v>
       </c>
       <c r="D7">
-        <v>9.516875285513949</v>
+        <v>5.190946137753186</v>
       </c>
       <c r="E7">
-        <v>13.13378629666387</v>
+        <v>6.9171656418329</v>
       </c>
       <c r="F7">
-        <v>28.93010825921808</v>
+        <v>23.42492654277878</v>
       </c>
       <c r="G7">
-        <v>29.82058049017369</v>
+        <v>32.06092324326043</v>
       </c>
       <c r="H7">
-        <v>14.03240804947066</v>
+        <v>9.62993757270818</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.51162820611013</v>
+        <v>5.095212886871223</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -689,13 +689,13 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>21.2322635036619</v>
+        <v>25.26601447733815</v>
       </c>
       <c r="N7">
-        <v>16.96184878854882</v>
+        <v>18.3096299102887</v>
       </c>
       <c r="O7">
-        <v>21.60987754337788</v>
+        <v>17.61857755474143</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>4.86178747149533</v>
+        <v>7.143474659514566</v>
       </c>
       <c r="D8">
-        <v>9.469088514590878</v>
+        <v>5.086465026500961</v>
       </c>
       <c r="E8">
-        <v>13.03287259745841</v>
+        <v>6.645466567706618</v>
       </c>
       <c r="F8">
-        <v>29.08859997776683</v>
+        <v>24.99569321701751</v>
       </c>
       <c r="G8">
-        <v>30.47738628421752</v>
+        <v>34.97296842039305</v>
       </c>
       <c r="H8">
-        <v>14.04101266791539</v>
+        <v>10.05337397880821</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>9.452924411932964</v>
+        <v>4.929227727042544</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -736,13 +736,13 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>22.11668759427191</v>
+        <v>27.71703719421007</v>
       </c>
       <c r="N8">
-        <v>17.33081122424798</v>
+        <v>19.412322342992</v>
       </c>
       <c r="O8">
-        <v>21.746514767159</v>
+        <v>18.81315422721872</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -753,28 +753,28 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>5.275705716908866</v>
+        <v>8.327579049690273</v>
       </c>
       <c r="D9">
-        <v>9.385166978503563</v>
+        <v>4.901703807595751</v>
       </c>
       <c r="E9">
-        <v>12.85329498648699</v>
+        <v>6.142611522854938</v>
       </c>
       <c r="F9">
-        <v>29.46930115143144</v>
+        <v>28.01793467173119</v>
       </c>
       <c r="G9">
-        <v>31.8127579178313</v>
+        <v>40.32067716343833</v>
       </c>
       <c r="H9">
-        <v>14.08402786312987</v>
+        <v>10.90563386197616</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>9.348182252552908</v>
+        <v>4.61821182322378</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -783,13 +783,13 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>23.75318926564491</v>
+        <v>31.97045603170529</v>
       </c>
       <c r="N9">
-        <v>18.04612151014032</v>
+        <v>21.42795452409339</v>
       </c>
       <c r="O9">
-        <v>22.06268758165521</v>
+        <v>21.09622780077621</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -800,28 +800,28 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>5.56635123786754</v>
+        <v>9.119279776732983</v>
       </c>
       <c r="D10">
-        <v>9.329442485732493</v>
+        <v>4.779199619447152</v>
       </c>
       <c r="E10">
-        <v>12.73242658261246</v>
+        <v>5.791322745472147</v>
       </c>
       <c r="F10">
-        <v>29.78986705667299</v>
+        <v>30.18769271220816</v>
       </c>
       <c r="G10">
-        <v>32.81132743154357</v>
+        <v>44.09955998606974</v>
       </c>
       <c r="H10">
-        <v>14.13145965070632</v>
+        <v>11.54097228020175</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>9.277489692695589</v>
+        <v>4.39754717212468</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -830,13 +830,13 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>24.88486897604502</v>
+        <v>34.76351993792421</v>
       </c>
       <c r="N10">
-        <v>18.56171446959201</v>
+        <v>22.80791314493036</v>
       </c>
       <c r="O10">
-        <v>22.32285378145962</v>
+        <v>22.72623884893912</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -847,28 +847,28 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5.694993491010759</v>
+        <v>9.463127632097343</v>
       </c>
       <c r="D11">
-        <v>9.305372974545586</v>
+        <v>4.726602174375442</v>
       </c>
       <c r="E11">
-        <v>12.67982286666566</v>
+        <v>5.635513349196593</v>
       </c>
       <c r="F11">
-        <v>29.94413419318374</v>
+        <v>31.16183375551057</v>
       </c>
       <c r="G11">
-        <v>33.26702790115322</v>
+        <v>45.77098053438935</v>
       </c>
       <c r="H11">
-        <v>14.15643917136421</v>
+        <v>11.83134800919956</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>9.246675775488161</v>
+        <v>4.298631864991573</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -877,13 +877,13 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>25.38239477384256</v>
+        <v>35.96330891871757</v>
       </c>
       <c r="N11">
-        <v>18.79312710310437</v>
+        <v>23.41198009412611</v>
       </c>
       <c r="O11">
-        <v>22.44689102276475</v>
+        <v>23.47485494626968</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -894,28 +894,28 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5.74314636469456</v>
+        <v>9.591048904254926</v>
       </c>
       <c r="D12">
-        <v>9.296442009745807</v>
+        <v>4.707160562226915</v>
       </c>
       <c r="E12">
-        <v>12.66024393052381</v>
+        <v>5.577100040615813</v>
       </c>
       <c r="F12">
-        <v>30.00372337919578</v>
+        <v>31.52878013849064</v>
       </c>
       <c r="G12">
-        <v>33.43960725927923</v>
+        <v>46.39598506366279</v>
       </c>
       <c r="H12">
-        <v>14.16638351886989</v>
+        <v>11.94146400436394</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>9.235199667813374</v>
+        <v>4.261366033038586</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -924,13 +924,13 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>25.56816910677947</v>
+        <v>36.40756345703954</v>
       </c>
       <c r="N12">
-        <v>18.88022915096149</v>
+        <v>23.63720409264091</v>
       </c>
       <c r="O12">
-        <v>22.49464417921837</v>
+        <v>23.80074998715195</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5.732801432684322</v>
+        <v>9.563599502677485</v>
       </c>
       <c r="D13">
-        <v>9.298357291810957</v>
+        <v>4.711326048015169</v>
       </c>
       <c r="E13">
-        <v>12.66444546112955</v>
+        <v>5.589653916867437</v>
       </c>
       <c r="F13">
-        <v>29.99083837355332</v>
+        <v>31.44983867848484</v>
       </c>
       <c r="G13">
-        <v>33.40244150756456</v>
+        <v>46.26172875510598</v>
       </c>
       <c r="H13">
-        <v>14.16422032103952</v>
+        <v>11.9177420205302</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>9.237662707450751</v>
+        <v>4.269383713806351</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -971,13 +971,13 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>25.52827826385139</v>
+        <v>36.31233192809868</v>
       </c>
       <c r="N13">
-        <v>18.86149489446174</v>
+        <v>23.58885638859282</v>
       </c>
       <c r="O13">
-        <v>22.48432543161342</v>
+        <v>23.73075743207363</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -988,28 +988,28 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5.698966554170629</v>
+        <v>9.473697272800139</v>
       </c>
       <c r="D14">
-        <v>9.304634540609134</v>
+        <v>4.724993003571185</v>
       </c>
       <c r="E14">
-        <v>12.67820526994892</v>
+        <v>5.630695751609936</v>
       </c>
       <c r="F14">
-        <v>29.94901340168991</v>
+        <v>31.19206181191437</v>
       </c>
       <c r="G14">
-        <v>33.28122687601986</v>
+        <v>45.82255785282084</v>
       </c>
       <c r="H14">
-        <v>14.15724760163679</v>
+        <v>11.84040433743729</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>9.245727777162793</v>
+        <v>4.295562265529732</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>25.39773196912811</v>
+        <v>36.00005942206749</v>
       </c>
       <c r="N14">
-        <v>18.80030407549908</v>
+        <v>23.43058060574351</v>
       </c>
       <c r="O14">
-        <v>22.45080421720334</v>
+        <v>23.50175447758886</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1035,28 +1035,28 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>5.678167328019181</v>
+        <v>9.418333570546771</v>
       </c>
       <c r="D15">
-        <v>9.308503439913233</v>
+        <v>4.733427208225194</v>
       </c>
       <c r="E15">
-        <v>12.68667791410779</v>
+        <v>5.65591222826179</v>
       </c>
       <c r="F15">
-        <v>29.92354567798551</v>
+        <v>31.03391189149903</v>
       </c>
       <c r="G15">
-        <v>33.20697583709445</v>
+        <v>45.5525260373037</v>
       </c>
       <c r="H15">
-        <v>14.15303965675957</v>
+        <v>11.79305234105094</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>9.25069290238685</v>
+        <v>4.311621691682742</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -1065,13 +1065,13 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>25.31742239505121</v>
+        <v>35.80747391136409</v>
       </c>
       <c r="N15">
-        <v>18.76275179671525</v>
+        <v>23.33317022443468</v>
       </c>
       <c r="O15">
-        <v>22.4303724084171</v>
+        <v>23.360911123288</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1082,28 +1082,28 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5.557868082716372</v>
+        <v>9.096485336486813</v>
       </c>
       <c r="D16">
-        <v>9.331041203862748</v>
+        <v>4.782702100989329</v>
       </c>
       <c r="E16">
-        <v>12.73591213946646</v>
+        <v>5.801586647959249</v>
       </c>
       <c r="F16">
-        <v>29.7799516333115</v>
+        <v>30.12376219620349</v>
       </c>
       <c r="G16">
-        <v>32.78155882533033</v>
+        <v>43.98921045867697</v>
       </c>
       <c r="H16">
-        <v>14.12989530850392</v>
+        <v>11.5220192574603</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>9.279530433635543</v>
+        <v>4.404039372371555</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>24.85199417630853</v>
+        <v>34.68369485054831</v>
       </c>
       <c r="N16">
-        <v>18.54652127515741</v>
+        <v>22.76794880800406</v>
       </c>
       <c r="O16">
-        <v>22.31485914856921</v>
+        <v>22.67829949566485</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1129,28 +1129,28 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.483117637272674</v>
+        <v>8.894906683379872</v>
       </c>
       <c r="D17">
-        <v>9.345194899639141</v>
+        <v>4.813749672897731</v>
       </c>
       <c r="E17">
-        <v>12.76672438144677</v>
+        <v>5.891983748889327</v>
       </c>
       <c r="F17">
-        <v>29.69399393347192</v>
+        <v>29.56203296352227</v>
       </c>
       <c r="G17">
-        <v>32.52081059557507</v>
+        <v>43.01587895604849</v>
       </c>
       <c r="H17">
-        <v>14.11656572563363</v>
+        <v>11.35606509026875</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>9.297565050561989</v>
+        <v>4.461096535374209</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1159,13 +1159,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>24.56193617281236</v>
+        <v>33.97623117258733</v>
       </c>
       <c r="N17">
-        <v>18.41301138737857</v>
+        <v>22.41504684321761</v>
       </c>
       <c r="O17">
-        <v>22.24542774120273</v>
+        <v>22.2568608056089</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1176,28 +1176,28 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5.439789224165495</v>
+        <v>8.777426014332313</v>
       </c>
       <c r="D18">
-        <v>9.353456219063801</v>
+        <v>4.831900319186371</v>
       </c>
       <c r="E18">
-        <v>12.78467085354397</v>
+        <v>5.944352437426507</v>
       </c>
       <c r="F18">
-        <v>29.64535045599834</v>
+        <v>29.23772897002601</v>
       </c>
       <c r="G18">
-        <v>32.37098235675436</v>
+        <v>42.45075205240539</v>
       </c>
       <c r="H18">
-        <v>14.10921945368963</v>
+        <v>11.26074177856639</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>9.308064686536371</v>
+        <v>4.494053542194311</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1206,13 +1206,13 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>24.39348340110551</v>
+        <v>33.56264738341154</v>
       </c>
       <c r="N18">
-        <v>18.33592956422917</v>
+        <v>22.2098432229195</v>
       </c>
       <c r="O18">
-        <v>22.20603005163185</v>
+        <v>22.01336776367003</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1223,28 +1223,28 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>5.425063146152888</v>
+        <v>8.737383236994221</v>
       </c>
       <c r="D19">
-        <v>9.356274066256717</v>
+        <v>4.838095392760339</v>
       </c>
       <c r="E19">
-        <v>12.79078574687187</v>
+        <v>5.962147616717889</v>
       </c>
       <c r="F19">
-        <v>29.62901875593693</v>
+        <v>29.12772059132502</v>
       </c>
       <c r="G19">
-        <v>32.32028435500107</v>
+        <v>42.25849763534125</v>
       </c>
       <c r="H19">
-        <v>14.10678730353628</v>
+        <v>11.22849052270199</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>9.311641453728463</v>
+        <v>4.505236712092563</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1253,13 +1253,13 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>24.336174725997</v>
+        <v>33.42146659090436</v>
       </c>
       <c r="N19">
-        <v>18.3097835466969</v>
+        <v>22.13998683850438</v>
       </c>
       <c r="O19">
-        <v>22.19278400373203</v>
+        <v>21.93074001418732</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1270,28 +1270,28 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>5.49110987067779</v>
+        <v>8.916523842573543</v>
       </c>
       <c r="D20">
-        <v>9.343675747461075</v>
+        <v>4.810414115642747</v>
       </c>
       <c r="E20">
-        <v>12.76342118299855</v>
+        <v>5.88232196877484</v>
       </c>
       <c r="F20">
-        <v>29.70306207529817</v>
+        <v>29.62195626464654</v>
       </c>
       <c r="G20">
-        <v>32.54855386643516</v>
+        <v>43.12003868957893</v>
       </c>
       <c r="H20">
-        <v>14.1179515346278</v>
+        <v>11.37371815250816</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>9.295632138427617</v>
+        <v>4.455008431158118</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1300,13 +1300,13 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>24.592981996845</v>
+        <v>34.05223143951142</v>
       </c>
       <c r="N20">
-        <v>18.42725438507583</v>
+        <v>22.45284493375052</v>
       </c>
       <c r="O20">
-        <v>22.25276345837043</v>
+        <v>22.30183731596836</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1317,28 +1317,28 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>5.708920256742102</v>
+        <v>9.500165312985608</v>
       </c>
       <c r="D21">
-        <v>9.302785779780027</v>
+        <v>4.720965549090501</v>
       </c>
       <c r="E21">
-        <v>12.67415443741015</v>
+        <v>5.618624651688602</v>
       </c>
       <c r="F21">
-        <v>29.96126696200672</v>
+        <v>31.26783016101912</v>
       </c>
       <c r="G21">
-        <v>33.31683163048842</v>
+        <v>45.95176666893718</v>
       </c>
       <c r="H21">
-        <v>14.15928252761404</v>
+        <v>11.86311625890168</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>9.243353654531145</v>
+        <v>4.28786796110611</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1347,13 +1347,13 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>25.43614896094802</v>
+        <v>36.09205415606975</v>
       </c>
       <c r="N21">
-        <v>18.81829226107818</v>
+        <v>23.47716647575123</v>
       </c>
       <c r="O21">
-        <v>22.46062924664157</v>
+        <v>23.56913727086888</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1364,28 +1364,28 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>5.84798300960249</v>
+        <v>9.868311088210145</v>
       </c>
       <c r="D22">
-        <v>9.277132018664238</v>
+        <v>4.665294170682566</v>
       </c>
       <c r="E22">
-        <v>12.61780019092449</v>
+        <v>5.449725079739741</v>
       </c>
       <c r="F22">
-        <v>30.13682630409719</v>
+        <v>32.33219937209324</v>
       </c>
       <c r="G22">
-        <v>33.81895171090304</v>
+        <v>47.75637520835391</v>
       </c>
       <c r="H22">
-        <v>14.18912017596336</v>
+        <v>12.18387441909406</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>9.210308008057137</v>
+        <v>4.179736915830625</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1394,13 +1394,13 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>25.97183461631777</v>
+        <v>37.36649574924804</v>
       </c>
       <c r="N22">
-        <v>19.07074180755329</v>
+        <v>24.12604610259139</v>
       </c>
       <c r="O22">
-        <v>22.60102792116418</v>
+        <v>24.50960071007609</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1411,28 +1411,28 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>5.774077729425549</v>
+        <v>9.673021470807248</v>
       </c>
       <c r="D23">
-        <v>9.290726120818741</v>
+        <v>4.69474245358092</v>
       </c>
       <c r="E23">
-        <v>12.64769614557191</v>
+        <v>5.539548220277737</v>
       </c>
       <c r="F23">
-        <v>30.04251865034409</v>
+        <v>31.76517305025063</v>
       </c>
       <c r="G23">
-        <v>33.55102192996768</v>
+        <v>46.79737592231363</v>
       </c>
       <c r="H23">
-        <v>14.1729382545329</v>
+        <v>12.01260536078392</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>9.227842776048046</v>
+        <v>4.237354129672426</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1441,13 +1441,13 @@
         <v>0</v>
       </c>
       <c r="M23">
-        <v>25.68737887540235</v>
+        <v>36.69163881922061</v>
       </c>
       <c r="N23">
-        <v>18.93631472751926</v>
+        <v>23.78164227692566</v>
       </c>
       <c r="O23">
-        <v>22.52569040917387</v>
+        <v>24.0099694074799</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1458,28 +1458,28 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>5.487497679073073</v>
+        <v>8.906755683001849</v>
       </c>
       <c r="D24">
-        <v>9.344362169343531</v>
+        <v>4.811921185484577</v>
       </c>
       <c r="E24">
-        <v>12.76491383589809</v>
+        <v>5.886688820238189</v>
       </c>
       <c r="F24">
-        <v>29.69895995181912</v>
+        <v>29.59486916403562</v>
       </c>
       <c r="G24">
-        <v>32.53601087152747</v>
+        <v>43.07296535735649</v>
       </c>
       <c r="H24">
-        <v>14.11732402231599</v>
+        <v>11.3657369322721</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>9.296505598936786</v>
+        <v>4.457760381668715</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1488,13 +1488,13 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>24.5789514469152</v>
+        <v>34.01789307344155</v>
       </c>
       <c r="N24">
-        <v>18.42081613276582</v>
+        <v>22.43576362037807</v>
       </c>
       <c r="O24">
-        <v>22.24944536018794</v>
+        <v>22.28150717570301</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1505,28 +1505,28 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>5.165850155137005</v>
+        <v>8.021209755809551</v>
       </c>
       <c r="D25">
-        <v>9.406825689841504</v>
+        <v>4.949439966447923</v>
       </c>
       <c r="E25">
-        <v>12.89992498689189</v>
+        <v>6.275462795296207</v>
       </c>
       <c r="F25">
-        <v>29.35899542661668</v>
+        <v>27.2083744787687</v>
       </c>
       <c r="G25">
-        <v>31.4476177274501</v>
+        <v>38.91420703156545</v>
       </c>
       <c r="H25">
-        <v>14.06960123124142</v>
+        <v>10.67319923984198</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>9.375413604450889</v>
+        <v>4.700898525306225</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1535,13 +1535,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>23.32215614299891</v>
+        <v>30.87847934185514</v>
       </c>
       <c r="N25">
-        <v>17.85401202175196</v>
+        <v>20.89969216936715</v>
       </c>
       <c r="O25">
-        <v>21.97213983805011</v>
+        <v>20.4862946846977</v>
       </c>
     </row>
   </sheetData>
